--- a/biology/Botanique/Saccolabium/Saccolabium.xlsx
+++ b/biology/Botanique/Saccolabium/Saccolabium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccolabium est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,33 +523,35 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 juillet 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 juillet 2018) :
 Saccolabium congestum (Lindl.) Hook.f.
 Saccolabium longicaule J.J.Sm.
 Saccolabium pusillum Blume
 Saccolabium rantii J.J.Sm.
 Saccolabium sigmoideum J.J.Sm.
-Selon Catalogue of Life                                   (17 juillet 2018)[3] :
+Selon Catalogue of Life                                   (17 juillet 2018) :
 Saccolabium longicaule J.J.Sm.
 Saccolabium pusillum Blume
 Saccolabium rantii J.J.Sm.
 Saccolabium sigmoideum J.J.Sm.
-Selon GRIN            (17 juillet 2018)[4] :
+Selon GRIN            (17 juillet 2018) :
 Saccolabium ampullaceum Lindl.
-Selon World Checklist of Selected Plant Families (WCSP)  (17 juillet 2018)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (17 juillet 2018) :
 Saccolabium longicaule J.J.Sm., Bull. Jard. Bot. Buitenzorg, sér. 3 (1920)
 Saccolabium pusillum Blume (1825)
 Saccolabium rantii J.J.Sm., Bull. Jard. Bot. Buitenzorg, sér. 2 (1913)
 Saccolabium sigmoideum J.J.Sm., Bull. Jard. Bot. Buitenzorg, sér. 2 (1914)
-Selon The Plant List            (17 juillet 2018)[6] :
+Selon The Plant List            (17 juillet 2018) :
 Saccolabium congestum (Lindl.) Hook.f.
 Saccolabium longicaule J.J.Sm.
 Saccolabium pusillum Blume
 Saccolabium rantii J.J.Sm.
 Saccolabium sigmoideum J.J.Sm.
-Selon Tropicos                                           (17 juillet 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
 Saccolabium aberrans Schltr.
 Saccolabium abyssinicum A. Rich.
 Saccolabium acaule Hook. f.
